--- a/WebContent/static/Exceltemplate/sysUserImport.xlsx
+++ b/WebContent/static/Exceltemplate/sysUserImport.xlsx
@@ -119,7 +119,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>姓名，手机号</t>
+      <t>姓名，工号，手机号</t>
     </r>
     <r>
       <rPr>
@@ -160,7 +160,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>工号，邮箱，电话，备注可填写，可为空。</t>
+      <t>邮箱，电话，备注可填写，可为空。</t>
     </r>
     <r>
       <rPr>
@@ -239,13 +239,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -274,103 +274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,6 +303,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,19 +380,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -453,6 +446,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -471,24 +596,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -501,48 +608,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -562,78 +627,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,45 +668,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -734,6 +688,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,16 +743,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,148 +770,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -947,7 +940,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1023,7 +1016,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1306,7 +1299,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A1" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/WebContent/static/Exceltemplate/sysUserImport.xlsx
+++ b/WebContent/static/Exceltemplate/sysUserImport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="用户数据" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>身份证号必填，用户类型和拥有角色默认为美容师，若用户类型和拥有角色不符，请在后台自行修改</t>
+      <t>身份证号必填，用户类型默认为美容师，拥有角色默认为美容师和排班，若用户类型和拥有角色不符，请在后台自行修改</t>
     </r>
     <r>
       <rPr>
@@ -239,11 +239,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -276,6 +276,72 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -303,46 +369,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,51 +409,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -446,6 +446,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -476,19 +548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,72 +591,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,6 +668,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -688,6 +703,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,41 +759,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -770,148 +770,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/WebContent/static/Exceltemplate/sysUserImport.xlsx
+++ b/WebContent/static/Exceltemplate/sysUserImport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="用户数据" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,13 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">
  </t>
     </r>
@@ -240,9 +247,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="25">
@@ -274,7 +281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,15 +311,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,15 +333,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,7 +347,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,9 +371,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,8 +393,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,21 +408,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -446,187 +453,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,6 +700,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -724,17 +746,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -742,17 +753,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,49 +777,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,7 +828,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -830,88 +837,88 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
